--- a/Projet_2(organisation)/fonctionnelle.xlsx
+++ b/Projet_2(organisation)/fonctionnelle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_documents\OpenClassroom\OC\Projet_2(organisation)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sch-a\Documents\OC\OC\Projet_2(organisation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>Contenu</t>
   </si>
@@ -362,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -494,11 +494,78 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -510,7 +577,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -523,70 +590,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -596,10 +611,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -608,85 +621,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,645 +1024,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="18" style="26" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16" style="26" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="E1" s="23"/>
+      <c r="H1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="H2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="H3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="20" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="20" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="15"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="16"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="23" t="s">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="20" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="20" t="s">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="20" t="s">
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="20" t="s">
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="23" t="s">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="20" t="s">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="20" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="20" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="20" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="20" t="s">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="20" t="s">
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="20" t="s">
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="20" t="s">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="63">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E19:E20"/>
@@ -1649,13 +1727,40 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projet_2(organisation)/fonctionnelle.xlsx
+++ b/Projet_2(organisation)/fonctionnelle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sch-a\Documents\OC\OC\Projet_2(organisation)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_documents\OpenClassroom\OC\Projet_2(organisation)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="114">
   <si>
     <t>Contenu</t>
   </si>
@@ -327,6 +327,45 @@
   </si>
   <si>
     <t>renvoie vers la page d'acceuil</t>
+  </si>
+  <si>
+    <t>Centré à gauche de la page</t>
+  </si>
+  <si>
+    <t>592px de large sur 295px de haut sur desktop. 217px de large sur 163px de haut sur portable</t>
+  </si>
+  <si>
+    <t>595px de large sur 278px de haut sur desktop .218px de large sur 159px de haut sur portable.</t>
+  </si>
+  <si>
+    <t>Centré à droite de la page.</t>
+  </si>
+  <si>
+    <t>Bloc</t>
+  </si>
+  <si>
+    <t>Fond</t>
+  </si>
+  <si>
+    <t>Une bloc sur deux est gris #CCCCCC</t>
+  </si>
+  <si>
+    <t>Image carte</t>
+  </si>
+  <si>
+    <t>Identique au bloc de carte des exposants</t>
+  </si>
+  <si>
+    <t>1014px de large sur 715px de haut en desktop. 347px de large sur 261px de haut sur portable.</t>
+  </si>
+  <si>
+    <t>Centré au milieu</t>
+  </si>
+  <si>
+    <t>En dessous de la carte</t>
+  </si>
+  <si>
+    <t>Cours</t>
   </si>
 </sst>
 </file>
@@ -342,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +400,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -617,11 +662,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -644,78 +711,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1024,86 +1167,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L7"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="14"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="H2" s="17" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="H3" s="16" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="H3" s="15" t="s">
         <v>64</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1113,23 +1257,23 @@
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1137,21 +1281,21 @@
         <v>8</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="15"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="18"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="29"/>
-    </row>
-    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1159,64 +1303,64 @@
         <v>10</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="16"/>
-      <c r="H6" s="29"/>
+      <c r="E6" s="15"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="3" t="s">
         <v>71</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="H7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1226,107 +1370,155 @@
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="E12" s="30"/>
+      <c r="H12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="25"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="E15" s="27"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1338,12 +1530,12 @@
       <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1353,19 +1545,19 @@
       <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1377,12 +1569,23 @@
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="H22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1392,10 +1595,23 @@
       <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="E23" s="18"/>
+      <c r="H23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
       <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
@@ -1405,19 +1621,39 @@
       <c r="D24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="E24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1429,12 +1665,17 @@
       <c r="D26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
@@ -1444,106 +1685,194 @@
       <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="15"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="E28" s="30"/>
+      <c r="H28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="H29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="E30" s="25"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
       <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="E31" s="27"/>
+      <c r="H31" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:12" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18"/>
       <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="E33" s="27"/>
+      <c r="H33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18"/>
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="E34" s="30"/>
+      <c r="H34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1555,12 +1884,21 @@
       <c r="D36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
       <c r="B37" s="3" t="s">
         <v>81</v>
       </c>
@@ -1568,10 +1906,19 @@
         <v>82</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="E37" s="18"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
       <c r="B38" s="3" t="s">
         <v>83</v>
       </c>
@@ -1579,10 +1926,21 @@
         <v>84</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="E38" s="18"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
       <c r="B39" s="3" t="s">
         <v>85</v>
       </c>
@@ -1590,10 +1948,21 @@
         <v>86</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="E39" s="18"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
       <c r="B40" s="3" t="s">
         <v>95</v>
       </c>
@@ -1603,10 +1972,23 @@
       <c r="D40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="E40" s="18"/>
+      <c r="H40" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
         <v>87</v>
       </c>
@@ -1616,13 +1998,13 @@
       <c r="D41" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="4" t="s">
         <v>91</v>
       </c>
@@ -1633,17 +2015,28 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:12" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="H43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1652,93 +2045,409 @@
       <c r="C44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="E44" s="25"/>
+      <c r="H44" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
       <c r="B45" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="E45" s="27"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
       <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="3" t="s">
+      <c r="E46" s="27"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="1:12" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="35"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
+    </row>
+    <row r="49" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="H49" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="14"/>
+    </row>
+    <row r="50" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="H50" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L50" s="33"/>
+    </row>
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H51" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="39"/>
+      <c r="J51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="27"/>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="27"/>
+    </row>
+    <row r="65" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="25"/>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="123">
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="H34:H39"/>
+    <mergeCell ref="L34:L39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="L13:L15"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D44:E44"/>
@@ -1755,12 +2464,52 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="E36:E41"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
